--- a/제출본/(최종)요구사항 정의서.xlsx
+++ b/제출본/(최종)요구사항 정의서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whddl\Desktop\최종 프로젝트\제출본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092961D-1559-4A9D-888A-831F6A2C4C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD54E52-8BFA-4401-941D-2CB3EB52A217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3544,10 +3544,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GUYDOK(운동 규독 은넝해) 웹 서비스 요구사항 정의서</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -4041,6 +4037,10 @@
   </si>
   <si>
     <t>SUBSCRIBE02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GYUDOK(운동 규독 은넝해) 웹 서비스 요구사항 정의서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4140,17 +4140,17 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4167,7 +4167,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4268,7 +4268,20 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -4277,7 +4290,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4320,34 +4333,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4362,47 +4369,50 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4909,11 +4919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4934,13 +4946,13 @@
     <col min="15" max="16384" width="8.640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
+    <row r="1" spans="2:11" ht="23.15" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
       <c r="F1" s="6"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4995,16 +5007,16 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>1</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="28" t="s">
         <v>85</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -5021,16 +5033,16 @@
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="28" t="s">
         <v>86</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -5051,14 +5063,14 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="33" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="28" t="s">
         <v>87</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -5073,14 +5085,14 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>4</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="28" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -5103,40 +5115,40 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>5</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="33" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="32" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>6</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="32" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="11" t="s">
@@ -5157,7 +5169,7 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>7</v>
       </c>
       <c r="C10" s="14" t="s">
@@ -5166,7 +5178,7 @@
       <c r="D10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F10" s="11" t="s">
@@ -5175,11 +5187,11 @@
       <c r="G10" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="20" t="s">
-        <v>95</v>
+      <c r="I10" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="J10" s="11" t="s">
         <v>12</v>
@@ -5189,14 +5201,14 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>8</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -5205,7 +5217,7 @@
       <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="11" t="s">
@@ -5217,14 +5229,14 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="12" t="s">
         <v>71</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -5233,7 +5245,7 @@
       <c r="G12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -5245,14 +5257,14 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>10</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
@@ -5261,7 +5273,7 @@
       <c r="G13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -5273,25 +5285,25 @@
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="31">
+      <c r="B14" s="39">
         <v>11</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" s="24" t="s">
+      <c r="E14" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -5303,43 +5315,43 @@
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>12</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="27" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="25" t="s">
         <v>93</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>13</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="24" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22" t="s">
         <v>79</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -5351,19 +5363,19 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>14</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="24" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G17" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -5375,19 +5387,19 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="31">
+      <c r="B18" s="28">
         <v>15</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="24" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="22" t="s">
         <v>83</v>
       </c>
       <c r="G18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="11"/>
@@ -5395,19 +5407,19 @@
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" s="3" customFormat="1" ht="50.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>16</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="22" t="s">
         <v>84</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="16" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="11" t="s">
@@ -5478,7 +5490,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>